--- a/public/assets/pf_esic_employee.xlsx
+++ b/public/assets/pf_esic_employee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,31 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>emp_id</t>
+    <t>EMP PF NO</t>
   </si>
   <si>
-    <t>emp_PF_no</t>
+    <t>EMP ESIC NO</t>
   </si>
   <si>
-    <t>emp_ESIC_no</t>
+    <t>EMP ESIC STATE</t>
   </si>
   <si>
-    <t>emp_esic_State</t>
+    <t>EMP PF STATUS</t>
   </si>
   <si>
-    <t>emp_pf_status</t>
+    <t>EMP CODE</t>
   </si>
 </sst>
 </file>
@@ -404,26 +404,30 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
